--- a/요괴_비교_결과.xlsx
+++ b/요괴_비교_결과.xlsx
@@ -26,12 +26,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0092D050"/>
+        <bgColor rgb="0092D050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEB9C"/>
+        <bgColor rgb="00FFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +64,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -125,27 +146,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R1" headerRowCount="1">
-  <autoFilter ref="A1:R1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:R94" headerRowCount="1">
+  <autoFilter ref="A1:R94"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="None"/>
-    <tableColumn id="2" name="None"/>
-    <tableColumn id="3" name="None"/>
-    <tableColumn id="4" name="None"/>
-    <tableColumn id="5" name="None"/>
-    <tableColumn id="6" name="None"/>
-    <tableColumn id="7" name="None"/>
-    <tableColumn id="8" name="None"/>
-    <tableColumn id="9" name="None"/>
-    <tableColumn id="10" name="None"/>
-    <tableColumn id="11" name="None"/>
-    <tableColumn id="12" name="None"/>
-    <tableColumn id="13" name="None"/>
-    <tableColumn id="14" name="None"/>
-    <tableColumn id="15" name="None"/>
-    <tableColumn id="16" name="None"/>
-    <tableColumn id="17" name="None"/>
-    <tableColumn id="18" name="None"/>
+    <tableColumn id="1" name="이름"/>
+    <tableColumn id="2" name="상태"/>
+    <tableColumn id="3" name="타입"/>
+    <tableColumn id="4" name="공격력"/>
+    <tableColumn id="5" name="방어력"/>
+    <tableColumn id="6" name="체력"/>
+    <tableColumn id="7" name="스피드"/>
+    <tableColumn id="8" name="도감설명"/>
+    <tableColumn id="9" name="기술1"/>
+    <tableColumn id="10" name="기술2"/>
+    <tableColumn id="11" name="기술3"/>
+    <tableColumn id="12" name="기술4"/>
+    <tableColumn id="13" name="기술5"/>
+    <tableColumn id="14" name="기술6"/>
+    <tableColumn id="15" name="기술7"/>
+    <tableColumn id="16" name="기술8"/>
+    <tableColumn id="17" name="기술9"/>
+    <tableColumn id="18" name="기술10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -440,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,10 +469,7278 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="5" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="52" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="9" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>이름</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>상태</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>타입</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>공격력</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>방어력</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>체력</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>스피드</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>도감설명</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>기술1</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>기술2</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>기술3</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>기술4</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>기술5</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>기술6</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>기술7</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>기술8</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>기술9</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>기술10</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Entity</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>백룸 안에 서식하는 정체불명의 무언가로 이들의 소리가 나면 죽기만을 기다려야 한다</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>폭음파</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>속임수베기</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>이단도약</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>천지개벽</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>갓파</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>물가에 사는 물의 요괴로 머리 위 접시가 존재한다</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>유혹하기</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>할퀴기</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>물어뜯기</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>맹독침</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>사슬채찍</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>숨은송곳니</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr"/>
+      <c r="R3" s="1" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>강길</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>변경됨</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>HUMAN</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>전설 속 강가에서 물길을 지키던 수호자의 혼령</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>무궁화발차기</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>진흙던지기</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>부채베기</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>호미찌르기</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>바람칼</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="R4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>거루</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>사납게 포효하며 온몸에 독을 퍼뜨린다</t>
+        </is>
+      </c>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>사슬채찍</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>짖기</t>
+        </is>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>꼬리후려치기</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>이단도약</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr"/>
+      <c r="R5" s="1" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>거잠</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>잿더미 속에서 솟아오른 불타는 골상이다</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J6" s="1" t="inlineStr">
+        <is>
+          <t>불꽃치기</t>
+        </is>
+      </c>
+      <c r="K6" s="1" t="inlineStr">
+        <is>
+          <t>불씨던지기</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>돌가루</t>
+        </is>
+      </c>
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>불길장벽</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>용암분출</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr"/>
+      <c r="R6" s="1" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>경어목야유광</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>밤바다 물빛 속에서 환영을 불러낸다</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J7" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>음파</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>정전기</t>
+        </is>
+      </c>
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>검은연못</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="inlineStr">
+        <is>
+          <t>혼령의숨</t>
+        </is>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>암흑회오리</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr"/>
+      <c r="R7" s="1" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>고수여칠</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>일곱 개의 손톱으로 찢고 훑어내는 귀신</t>
+        </is>
+      </c>
+      <c r="I8" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="J8" s="1" t="inlineStr">
+        <is>
+          <t>독꽃던지기</t>
+        </is>
+      </c>
+      <c r="K8" s="1" t="inlineStr">
+        <is>
+          <t>돌가루</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>쇠방울던지기</t>
+        </is>
+      </c>
+      <c r="O8" s="1" t="inlineStr">
+        <is>
+          <t>망각의노래</t>
+        </is>
+      </c>
+      <c r="P8" s="1" t="inlineStr">
+        <is>
+          <t>혼백폭발</t>
+        </is>
+      </c>
+      <c r="Q8" s="1" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>구렁이 아우</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>주먹밥을 먹고 자란 후 폭군을 죽인 뱀이다</t>
+        </is>
+      </c>
+      <c r="I9" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>독침</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>사슬채찍</t>
+        </is>
+      </c>
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>꼬리후려치기</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
+        <is>
+          <t>숨은송곳니</t>
+        </is>
+      </c>
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t>강철꼬리치기</t>
+        </is>
+      </c>
+      <c r="R9" s="1" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>굴각</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>호랑이에 기생한 창귀로 조용히 숨어들었다가 그림자처럼 적을 덮친다다</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="N10" s="1" t="inlineStr">
+        <is>
+          <t>할퀴기</t>
+        </is>
+      </c>
+      <c r="O10" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="P10" s="1" t="inlineStr">
+        <is>
+          <t>혼령의숨</t>
+        </is>
+      </c>
+      <c r="Q10" s="1" t="inlineStr">
+        <is>
+          <t>호랑이눈빛</t>
+        </is>
+      </c>
+      <c r="R10" s="1" t="inlineStr">
+        <is>
+          <t>깨물어부수기</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>귀마왕</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>변경됨</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>천공을 가르는 마왕의 원혼이 군림한다</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>지옥불</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>사념의박치기</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>혼령메아리</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>지옥기운</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>지옥폭뢰</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>피눈물베기</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>혼돈의폭발</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>어둠손길</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>귀태</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>머리 없는 시체에 씌워 퍼트리는 저주마</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="L12" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>음파</t>
+        </is>
+      </c>
+      <c r="N12" s="1" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="O12" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="P12" s="1" t="inlineStr">
+        <is>
+          <t>영혼폭포</t>
+        </is>
+      </c>
+      <c r="Q12" s="1" t="inlineStr">
+        <is>
+          <t>암흑회오리</t>
+        </is>
+      </c>
+      <c r="R12" s="1" t="inlineStr">
+        <is>
+          <t>어둠손길</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>그슨대</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>어둠 속에서 사람들은 유혹해 완전히 삼켜 버린다</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="N13" s="1" t="inlineStr">
+        <is>
+          <t>검은연못</t>
+        </is>
+      </c>
+      <c r="O13" s="1" t="inlineStr">
+        <is>
+          <t>망각의노래</t>
+        </is>
+      </c>
+      <c r="P13" s="1" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+      <c r="Q13" s="1" t="inlineStr"/>
+      <c r="R13" s="1" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>그슨새</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>제주도에서 낮에 혼자 있는 사람을 홀리는 요괴로 말로 막을 수 있다</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J14" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="K14" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="L14" s="1" t="inlineStr">
+        <is>
+          <t>음파</t>
+        </is>
+      </c>
+      <c r="M14" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="N14" s="1" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="O14" s="1" t="inlineStr">
+        <is>
+          <t>염력</t>
+        </is>
+      </c>
+      <c r="P14" s="1" t="inlineStr">
+        <is>
+          <t>망각의노래</t>
+        </is>
+      </c>
+      <c r="Q14" s="1" t="inlineStr">
+        <is>
+          <t>어둠손길</t>
+        </is>
+      </c>
+      <c r="R14" s="1" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>금갑장군</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>변경됨</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>HUMAN</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>황금 갑옷 입고 사신을 지휘하는 군장</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>파멸의망치</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>무궁화발차기</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>칼날비</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>철화살</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>어퍼컷</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>후려치기</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr"/>
+      <c r="R15" s="2" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>금혈어</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>핏빛 비늘로 적을 관통하는 독어이다</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>독침</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
+          <t>가시돌진</t>
+        </is>
+      </c>
+      <c r="N16" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="O16" s="1" t="inlineStr">
+        <is>
+          <t>물어뜯기</t>
+        </is>
+      </c>
+      <c r="P16" s="1" t="inlineStr">
+        <is>
+          <t>이단도약</t>
+        </is>
+      </c>
+      <c r="Q16" s="1" t="inlineStr"/>
+      <c r="R16" s="1" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>나군파</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>변경됨</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>어우야담에 등장하는 거대한 뱀</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>짖기</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>사념의박치기</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>요상한바람</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>독꽃던지기</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>돌가루</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>망각의노래</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr"/>
+      <c r="R17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>노구화위남</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>불꽃에 뒤덮인 노인의 원혼이 분노한다</t>
+        </is>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>불꽃치기</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="K18" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="inlineStr">
+        <is>
+          <t>음파</t>
+        </is>
+      </c>
+      <c r="M18" s="1" t="inlineStr">
+        <is>
+          <t>불길장벽</t>
+        </is>
+      </c>
+      <c r="N18" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="O18" s="1" t="inlineStr">
+        <is>
+          <t>칼날비</t>
+        </is>
+      </c>
+      <c r="P18" s="1" t="inlineStr">
+        <is>
+          <t>맹화</t>
+        </is>
+      </c>
+      <c r="Q18" s="1" t="inlineStr"/>
+      <c r="R18" s="1" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>노옹화구</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>노인의 혼으로 탄생한 불타는 머리뼈</t>
+        </is>
+      </c>
+      <c r="I19" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J19" s="1" t="inlineStr">
+        <is>
+          <t>불꽃치기</t>
+        </is>
+      </c>
+      <c r="K19" s="1" t="inlineStr">
+        <is>
+          <t>불씨던지기</t>
+        </is>
+      </c>
+      <c r="L19" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="M19" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="N19" s="1" t="inlineStr">
+        <is>
+          <t>불길장벽</t>
+        </is>
+      </c>
+      <c r="O19" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="P19" s="1" t="inlineStr">
+        <is>
+          <t>용암분출</t>
+        </is>
+      </c>
+      <c r="Q19" s="1" t="inlineStr"/>
+      <c r="R19" s="1" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>노호정</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>변경됨</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>늙은 호랑이 형상으로 호흡마다 불꽃을 내뿜는다</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>불꽃치기</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>맹화</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>강철꼬리치기</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>호랑이발톱</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>할퀴기</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>울부짖기</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>가시돌진</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="R20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>녹정</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>풀과 이끼로 뒤덮인 친환경 괴수</t>
+        </is>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J21" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t>진흙던지기</t>
+        </is>
+      </c>
+      <c r="M21" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="N21" s="1" t="inlineStr">
+        <is>
+          <t>어퍼컷</t>
+        </is>
+      </c>
+      <c r="O21" s="1" t="inlineStr">
+        <is>
+          <t>후려치기</t>
+        </is>
+      </c>
+      <c r="P21" s="1" t="inlineStr">
+        <is>
+          <t>분노의주먹</t>
+        </is>
+      </c>
+      <c r="Q21" s="1" t="inlineStr"/>
+      <c r="R21" s="1" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>누라리횬</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>집안일에 슬쩍 끼어들어 주인처럼 행동하는 능청스러운 존재</t>
+        </is>
+      </c>
+      <c r="I22" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="J22" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="K22" s="1" t="inlineStr">
+        <is>
+          <t>망각의노래</t>
+        </is>
+      </c>
+      <c r="L22" s="1" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="M22" s="1" t="inlineStr">
+        <is>
+          <t>달빛무도</t>
+        </is>
+      </c>
+      <c r="N22" s="1" t="inlineStr">
+        <is>
+          <t>귀신의사슬</t>
+        </is>
+      </c>
+      <c r="O22" s="1" t="inlineStr">
+        <is>
+          <t>요상한바람</t>
+        </is>
+      </c>
+      <c r="P22" s="1" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+      <c r="Q22" s="1" t="inlineStr"/>
+      <c r="R22" s="1" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>누룩귀</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>오래된 술독 속에서 태어난 원귀로 술기운에 취한 자를 노려 몸과 정신을 마비시킨다</t>
+        </is>
+      </c>
+      <c r="I23" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J23" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="K23" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="L23" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="M23" s="1" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="N23" s="1" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="O23" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="P23" s="1" t="inlineStr">
+        <is>
+          <t>어둠손길</t>
+        </is>
+      </c>
+      <c r="Q23" s="1" t="inlineStr"/>
+      <c r="R23" s="1" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>능원사</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>폐사찰의 기도를 삼킨 공허의 망령이다</t>
+        </is>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J24" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="L24" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="M24" s="1" t="inlineStr">
+        <is>
+          <t>정전기</t>
+        </is>
+      </c>
+      <c r="N24" s="1" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="O24" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="P24" s="1" t="inlineStr">
+        <is>
+          <t>그림자베기</t>
+        </is>
+      </c>
+      <c r="Q24" s="1" t="inlineStr">
+        <is>
+          <t>달밤유성</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>단피몽두</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
+        <is>
+          <t>꿈속 살점만 골라 먹는 흉포한 괴물</t>
+        </is>
+      </c>
+      <c r="I25" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J25" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="K25" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="L25" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="M25" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="N25" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="O25" s="1" t="inlineStr">
+        <is>
+          <t>혼령의숨</t>
+        </is>
+      </c>
+      <c r="P25" s="1" t="inlineStr">
+        <is>
+          <t>이단도약</t>
+        </is>
+      </c>
+      <c r="Q25" s="1" t="inlineStr"/>
+      <c r="R25" s="1" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>달걀귀신</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H26" s="1" t="inlineStr">
+        <is>
+          <t>깨진 달걀 껍질에서 태어난 요괴 망가진 형태 주시하며 배회한다</t>
+        </is>
+      </c>
+      <c r="I26" s="1" t="inlineStr">
+        <is>
+          <t>호미찌르기</t>
+        </is>
+      </c>
+      <c r="J26" s="1" t="inlineStr">
+        <is>
+          <t>돌가루</t>
+        </is>
+      </c>
+      <c r="K26" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="L26" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="M26" s="1" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="N26" s="1" t="inlineStr">
+        <is>
+          <t>어퍼컷</t>
+        </is>
+      </c>
+      <c r="O26" s="1" t="inlineStr">
+        <is>
+          <t>속임수베기</t>
+        </is>
+      </c>
+      <c r="P26" s="1" t="inlineStr">
+        <is>
+          <t>피눈물베기</t>
+        </is>
+      </c>
+      <c r="Q26" s="1" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>닷발괴물</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="H27" s="1" t="inlineStr">
+        <is>
+          <t>꼬리깃과 부리가 각각 닷 발(약 750cm)에 이르는 거대한 괴물</t>
+        </is>
+      </c>
+      <c r="I27" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J27" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="K27" s="1" t="inlineStr">
+        <is>
+          <t>날개베기</t>
+        </is>
+      </c>
+      <c r="L27" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="M27" s="1" t="inlineStr">
+        <is>
+          <t>할퀴기</t>
+        </is>
+      </c>
+      <c r="N27" s="1" t="inlineStr">
+        <is>
+          <t>사념의박치기</t>
+        </is>
+      </c>
+      <c r="O27" s="1" t="inlineStr">
+        <is>
+          <t>폭풍의깃</t>
+        </is>
+      </c>
+      <c r="P27" s="1" t="inlineStr">
+        <is>
+          <t>무쇠발톱</t>
+        </is>
+      </c>
+      <c r="Q27" s="1" t="inlineStr">
+        <is>
+          <t>천지개벽</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>대영차</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H28" s="1" t="inlineStr">
+        <is>
+          <t>거대한 몸으로 대지를 갈라내는 힘을 지닌 물고기이다다</t>
+        </is>
+      </c>
+      <c r="I28" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J28" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="K28" s="1" t="inlineStr">
+        <is>
+          <t>독침</t>
+        </is>
+      </c>
+      <c r="L28" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="M28" s="1" t="inlineStr">
+        <is>
+          <t>가시돌진</t>
+        </is>
+      </c>
+      <c r="N28" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="O28" s="1" t="inlineStr">
+        <is>
+          <t>꼬리후려치기</t>
+        </is>
+      </c>
+      <c r="P28" s="1" t="inlineStr">
+        <is>
+          <t>태산벽력</t>
+        </is>
+      </c>
+      <c r="Q28" s="1" t="inlineStr"/>
+      <c r="R28" s="1" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>도깨비</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
+        <is>
+          <t>밤에 나타나 사람들을 놀라게 하지만 가끔씩 도움을 주기도 한다</t>
+        </is>
+      </c>
+      <c r="I29" s="1" t="inlineStr">
+        <is>
+          <t>불씨던지기</t>
+        </is>
+      </c>
+      <c r="J29" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="K29" s="1" t="inlineStr">
+        <is>
+          <t>진흙던지기</t>
+        </is>
+      </c>
+      <c r="L29" s="1" t="inlineStr">
+        <is>
+          <t>호미찌르기</t>
+        </is>
+      </c>
+      <c r="M29" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="N29" s="1" t="inlineStr">
+        <is>
+          <t>쇠방울던지기</t>
+        </is>
+      </c>
+      <c r="O29" s="1" t="inlineStr">
+        <is>
+          <t>예측공격</t>
+        </is>
+      </c>
+      <c r="P29" s="1" t="inlineStr">
+        <is>
+          <t>도깨비방망이</t>
+        </is>
+      </c>
+      <c r="Q29" s="1" t="inlineStr"/>
+      <c r="R29" s="1" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>도깨비불</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H30" s="1" t="inlineStr">
+        <is>
+          <t>도깨비의 장난으로 태어난 불씨로 작지만 끈질기며 접촉한 자의 기력을 태워 없앤다</t>
+        </is>
+      </c>
+      <c r="I30" s="1" t="inlineStr">
+        <is>
+          <t>불꽃치기</t>
+        </is>
+      </c>
+      <c r="J30" s="1" t="inlineStr">
+        <is>
+          <t>불씨던지기</t>
+        </is>
+      </c>
+      <c r="K30" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="L30" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="M30" s="1" t="inlineStr">
+        <is>
+          <t>정전기</t>
+        </is>
+      </c>
+      <c r="N30" s="1" t="inlineStr">
+        <is>
+          <t>불길장벽</t>
+        </is>
+      </c>
+      <c r="O30" s="1" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="P30" s="1" t="inlineStr">
+        <is>
+          <t>맹화</t>
+        </is>
+      </c>
+      <c r="Q30" s="1" t="inlineStr">
+        <is>
+          <t>지옥불</t>
+        </is>
+      </c>
+      <c r="R30" s="1" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>독각귀</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1" t="inlineStr">
+        <is>
+          <t>몸에서 독이 흘러내리는 괴수로 날카로운 뿔로 찌르면 깊이 중독된다</t>
+        </is>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>독침</t>
+        </is>
+      </c>
+      <c r="L31" s="1" t="inlineStr">
+        <is>
+          <t>꼬리후려치기</t>
+        </is>
+      </c>
+      <c r="M31" s="1" t="inlineStr">
+        <is>
+          <t>맹독침</t>
+        </is>
+      </c>
+      <c r="N31" s="1" t="inlineStr">
+        <is>
+          <t>사념의박치기</t>
+        </is>
+      </c>
+      <c r="O31" s="1" t="inlineStr"/>
+      <c r="P31" s="1" t="inlineStr"/>
+      <c r="Q31" s="1" t="inlineStr"/>
+      <c r="R31" s="1" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>두두리</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="H32" s="1" t="inlineStr">
+        <is>
+          <t>신라 고려시대에 숭배받던 목신으로 경주 지역의 토속신으로 추정된다다</t>
+        </is>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J32" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="L32" s="1" t="inlineStr">
+        <is>
+          <t>돌가루</t>
+        </is>
+      </c>
+      <c r="M32" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="N32" s="1" t="inlineStr">
+        <is>
+          <t>염력</t>
+        </is>
+      </c>
+      <c r="O32" s="1" t="inlineStr">
+        <is>
+          <t>뇌우</t>
+        </is>
+      </c>
+      <c r="P32" s="1" t="inlineStr"/>
+      <c r="Q32" s="1" t="inlineStr"/>
+      <c r="R32" s="1" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>두억시니</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="H33" s="1" t="inlineStr">
+        <is>
+          <t>머리를 짓누르는 귀신이라는 뜻을 가진 요괴로 도깨비 집단의 우두머리라고도 묘사된다</t>
+        </is>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="J33" s="1" t="inlineStr">
+        <is>
+          <t>도깨비방망이</t>
+        </is>
+      </c>
+      <c r="K33" s="1" t="inlineStr">
+        <is>
+          <t>태산벽력</t>
+        </is>
+      </c>
+      <c r="L33" s="1" t="inlineStr">
+        <is>
+          <t>맹화</t>
+        </is>
+      </c>
+      <c r="M33" s="1" t="inlineStr">
+        <is>
+          <t>용암분출</t>
+        </is>
+      </c>
+      <c r="N33" s="1" t="inlineStr">
+        <is>
+          <t>철퇴내리치기</t>
+        </is>
+      </c>
+      <c r="O33" s="1" t="inlineStr">
+        <is>
+          <t>후려치기</t>
+        </is>
+      </c>
+      <c r="P33" s="1" t="inlineStr"/>
+      <c r="Q33" s="1" t="inlineStr"/>
+      <c r="R33" s="1" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>매구</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="H34" s="1" t="inlineStr">
+        <is>
+          <t>맹수가 들끓던 자리에 박힌 망령의 분노이다</t>
+        </is>
+      </c>
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="K34" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="L34" s="1" t="inlineStr">
+        <is>
+          <t>음파</t>
+        </is>
+      </c>
+      <c r="M34" s="1" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="N34" s="1" t="inlineStr">
+        <is>
+          <t>검은연못</t>
+        </is>
+      </c>
+      <c r="O34" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="P34" s="1" t="inlineStr">
+        <is>
+          <t>영혼폭포</t>
+        </is>
+      </c>
+      <c r="Q34" s="1" t="inlineStr">
+        <is>
+          <t>혼돈의폭발</t>
+        </is>
+      </c>
+      <c r="R34" s="1" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>몽달귀신</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="H35" s="1" t="inlineStr">
+        <is>
+          <t>달빛 아래서 잠 못 이루는 망자 원혼이 방황한다</t>
+        </is>
+      </c>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J35" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="L35" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="M35" s="1" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="N35" s="1" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="O35" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="P35" s="1" t="inlineStr">
+        <is>
+          <t>혼령의숨</t>
+        </is>
+      </c>
+      <c r="Q35" s="1" t="inlineStr">
+        <is>
+          <t>혼백폭발</t>
+        </is>
+      </c>
+      <c r="R35" s="1" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>묘수좌</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="H36" s="1" t="inlineStr">
+        <is>
+          <t>묘지의 수호신으로서 영혼을 심판한다</t>
+        </is>
+      </c>
+      <c r="I36" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="J36" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="K36" s="1" t="inlineStr">
+        <is>
+          <t>정전기</t>
+        </is>
+      </c>
+      <c r="L36" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="M36" s="1" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="N36" s="1" t="inlineStr">
+        <is>
+          <t>망자의손</t>
+        </is>
+      </c>
+      <c r="O36" s="1" t="inlineStr">
+        <is>
+          <t>영혼폭포</t>
+        </is>
+      </c>
+      <c r="P36" s="1" t="inlineStr">
+        <is>
+          <t>혼령메아리</t>
+        </is>
+      </c>
+      <c r="Q36" s="1" t="inlineStr"/>
+      <c r="R36" s="1" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>백제궁인</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
+          <t>백제가 멸망할 때 백마강에 투신한 궁녀의 원혼으로 소년에게 접근하여 정기를 꾀어낸다</t>
+        </is>
+      </c>
+      <c r="I37" s="1" t="inlineStr">
+        <is>
+          <t>부채베기</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="K37" s="1" t="inlineStr">
+        <is>
+          <t>독꽃던지기</t>
+        </is>
+      </c>
+      <c r="L37" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="N37" s="1" t="inlineStr">
+        <is>
+          <t>쇠방울던지기</t>
+        </is>
+      </c>
+      <c r="O37" s="1" t="inlineStr">
+        <is>
+          <t>철화살</t>
+        </is>
+      </c>
+      <c r="P37" s="1" t="inlineStr">
+        <is>
+          <t>속임수베기</t>
+        </is>
+      </c>
+      <c r="Q37" s="1" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+      <c r="R37" s="1" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>보은섬여</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="H38" s="1" t="inlineStr">
+        <is>
+          <t>보은 강가에서 맺힌 원혼이 되살아난다</t>
+        </is>
+      </c>
+      <c r="I38" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J38" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="K38" s="1" t="inlineStr">
+        <is>
+          <t>독꽃던지기</t>
+        </is>
+      </c>
+      <c r="L38" s="1" t="inlineStr">
+        <is>
+          <t>돌가루</t>
+        </is>
+      </c>
+      <c r="M38" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="N38" s="1" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="O38" s="1" t="inlineStr">
+        <is>
+          <t>검은연못</t>
+        </is>
+      </c>
+      <c r="P38" s="1" t="inlineStr">
+        <is>
+          <t>달그림자베기</t>
+        </is>
+      </c>
+      <c r="Q38" s="1" t="inlineStr">
+        <is>
+          <t>환영분열</t>
+        </is>
+      </c>
+      <c r="R38" s="1" t="inlineStr">
+        <is>
+          <t>지옥기운</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>불가사리</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="H39" s="1" t="inlineStr">
+        <is>
+          <t>강철 피부와 불사의 힘으로 죽지 않는 몸을 지녔다</t>
+        </is>
+      </c>
+      <c r="I39" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J39" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="K39" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="L39" s="1" t="inlineStr">
+        <is>
+          <t>짖기</t>
+        </is>
+      </c>
+      <c r="M39" s="1" t="inlineStr">
+        <is>
+          <t>가시돌진</t>
+        </is>
+      </c>
+      <c r="N39" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="O39" s="1" t="inlineStr">
+        <is>
+          <t>꼬리후려치기</t>
+        </is>
+      </c>
+      <c r="P39" s="1" t="inlineStr">
+        <is>
+          <t>태산벽력</t>
+        </is>
+      </c>
+      <c r="Q39" s="1" t="inlineStr">
+        <is>
+          <t>강철꼬리치기</t>
+        </is>
+      </c>
+      <c r="R39" s="1" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>불개</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="H40" s="1" t="inlineStr">
+        <is>
+          <t>불꽃 같은 털로 적진을 휩쓴다</t>
+        </is>
+      </c>
+      <c r="I40" s="1" t="inlineStr">
+        <is>
+          <t>불꽃치기</t>
+        </is>
+      </c>
+      <c r="J40" s="1" t="inlineStr">
+        <is>
+          <t>불씨던지기</t>
+        </is>
+      </c>
+      <c r="K40" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="L40" s="1" t="inlineStr">
+        <is>
+          <t>짖기</t>
+        </is>
+      </c>
+      <c r="M40" s="1" t="inlineStr">
+        <is>
+          <t>맹화</t>
+        </is>
+      </c>
+      <c r="N40" s="1" t="inlineStr">
+        <is>
+          <t>지옥불</t>
+        </is>
+      </c>
+      <c r="O40" s="1" t="inlineStr">
+        <is>
+          <t>용암분출</t>
+        </is>
+      </c>
+      <c r="P40" s="1" t="inlineStr"/>
+      <c r="Q40" s="1" t="inlineStr"/>
+      <c r="R40" s="1" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>불여우</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F41" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="H41" s="1" t="inlineStr">
+        <is>
+          <t>구미호처럼 사람 모습으로 남자를 홀리는 붉은 여우</t>
+        </is>
+      </c>
+      <c r="I41" s="1" t="inlineStr">
+        <is>
+          <t>부채베기</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="inlineStr">
+        <is>
+          <t>진흙던지기</t>
+        </is>
+      </c>
+      <c r="K41" s="1" t="inlineStr">
+        <is>
+          <t>호미찌르기</t>
+        </is>
+      </c>
+      <c r="L41" s="1" t="inlineStr">
+        <is>
+          <t>유혹하기</t>
+        </is>
+      </c>
+      <c r="M41" s="1" t="inlineStr">
+        <is>
+          <t>할퀴기</t>
+        </is>
+      </c>
+      <c r="N41" s="1" t="inlineStr">
+        <is>
+          <t>어퍼컷</t>
+        </is>
+      </c>
+      <c r="O41" s="1" t="inlineStr">
+        <is>
+          <t>마구할퀴기</t>
+        </is>
+      </c>
+      <c r="P41" s="1" t="inlineStr">
+        <is>
+          <t>분노의주먹</t>
+        </is>
+      </c>
+      <c r="Q41" s="1" t="inlineStr"/>
+      <c r="R41" s="1" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>불화살귀</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H42" s="1" t="inlineStr">
+        <is>
+          <t>전장에서 죽은 혼령들이 모여 만들어진 불꽃 요괴로 불타는 화살처럼 빠르게 적을 꿰뚫는다</t>
+        </is>
+      </c>
+      <c r="I42" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J42" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="K42" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="L42" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="M42" s="1" t="inlineStr">
+        <is>
+          <t>검은연못</t>
+        </is>
+      </c>
+      <c r="N42" s="1" t="inlineStr">
+        <is>
+          <t>망자의손</t>
+        </is>
+      </c>
+      <c r="O42" s="1" t="inlineStr">
+        <is>
+          <t>혼령의숨</t>
+        </is>
+      </c>
+      <c r="P42" s="1" t="inlineStr">
+        <is>
+          <t>혼령메아리</t>
+        </is>
+      </c>
+      <c r="Q42" s="1" t="inlineStr"/>
+      <c r="R42" s="1" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>사비하대어</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>삭제됨</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>황금 빛 비늘이 번뜩이며 적을 베어내는 사비하의 거대한 물고기</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="inlineStr">
+        <is>
+          <t>날개베기</t>
+        </is>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>깨물어부수기</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr">
+        <is>
+          <t>꼬리후려치기</t>
+        </is>
+      </c>
+      <c r="L43" s="3" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="M43" s="3" t="inlineStr">
+        <is>
+          <t>짖기</t>
+        </is>
+      </c>
+      <c r="N43" s="3" t="inlineStr">
+        <is>
+          <t>할퀴기</t>
+        </is>
+      </c>
+      <c r="O43" s="3" t="inlineStr">
+        <is>
+          <t>강철꼬리치기</t>
+        </is>
+      </c>
+      <c r="P43" s="3" t="inlineStr"/>
+      <c r="Q43" s="3" t="inlineStr"/>
+      <c r="R43" s="3" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>사이렌헤드</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="F44" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="H44" s="1" t="inlineStr">
+        <is>
+          <t>음파를 활용해 사람을 잡아먹는 머리에 사이렌이 달린 사람 모습의 흉측한 거대 괴물</t>
+        </is>
+      </c>
+      <c r="I44" s="1" t="inlineStr">
+        <is>
+          <t>예측공격</t>
+        </is>
+      </c>
+      <c r="J44" s="1" t="inlineStr">
+        <is>
+          <t>후려치기</t>
+        </is>
+      </c>
+      <c r="K44" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="L44" s="1" t="inlineStr">
+        <is>
+          <t>폭음파</t>
+        </is>
+      </c>
+      <c r="M44" s="1" t="inlineStr">
+        <is>
+          <t>망각의노래</t>
+        </is>
+      </c>
+      <c r="N44" s="1" t="inlineStr">
+        <is>
+          <t>혼령메아리</t>
+        </is>
+      </c>
+      <c r="O44" s="1" t="inlineStr"/>
+      <c r="P44" s="1" t="inlineStr"/>
+      <c r="Q44" s="1" t="inlineStr"/>
+      <c r="R44" s="1" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>산적귀</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F45" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H45" s="1" t="inlineStr">
+        <is>
+          <t>무리를 지어 길목을 지키는 악귀로 지나가는 이의 물건을 빼앗고 목숨까지 노리기도 한다</t>
+        </is>
+      </c>
+      <c r="I45" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J45" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="K45" s="1" t="inlineStr">
+        <is>
+          <t>돌가루</t>
+        </is>
+      </c>
+      <c r="L45" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="M45" s="1" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="N45" s="1" t="inlineStr">
+        <is>
+          <t>귀신의사슬</t>
+        </is>
+      </c>
+      <c r="O45" s="1" t="inlineStr">
+        <is>
+          <t>속임수베기</t>
+        </is>
+      </c>
+      <c r="P45" s="1" t="inlineStr">
+        <is>
+          <t>요상한바람</t>
+        </is>
+      </c>
+      <c r="Q45" s="1" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+      <c r="R45" s="1" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>산치성</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="H46" s="1" t="inlineStr">
+        <is>
+          <t>깊은 산속에서 태어난 땅의 괴수로 돌과 나무를 휘두르며 산을 지키는 수호자</t>
+        </is>
+      </c>
+      <c r="I46" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J46" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="K46" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="L46" s="1" t="inlineStr">
+        <is>
+          <t>진흙던지기</t>
+        </is>
+      </c>
+      <c r="M46" s="1" t="inlineStr">
+        <is>
+          <t>번개</t>
+        </is>
+      </c>
+      <c r="N46" s="1" t="inlineStr">
+        <is>
+          <t>얼음창</t>
+        </is>
+      </c>
+      <c r="O46" s="1" t="inlineStr">
+        <is>
+          <t>어퍼컷</t>
+        </is>
+      </c>
+      <c r="P46" s="1" t="inlineStr">
+        <is>
+          <t>흙폭탄</t>
+        </is>
+      </c>
+      <c r="Q46" s="1" t="inlineStr">
+        <is>
+          <t>천지개벽</t>
+        </is>
+      </c>
+      <c r="R46" s="1" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>살쾡이 요괴</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>도플갱어처럼 모습을 바꿔 접근한다</t>
+        </is>
+      </c>
+      <c r="I47" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="J47" s="1" t="inlineStr">
+        <is>
+          <t>진흙던지기</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="L47" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="M47" s="1" t="inlineStr">
+        <is>
+          <t>유혹하기</t>
+        </is>
+      </c>
+      <c r="N47" s="1" t="inlineStr">
+        <is>
+          <t>예측공격</t>
+        </is>
+      </c>
+      <c r="O47" s="1" t="inlineStr">
+        <is>
+          <t>마구할퀴기</t>
+        </is>
+      </c>
+      <c r="P47" s="1" t="inlineStr">
+        <is>
+          <t>물어뜯기</t>
+        </is>
+      </c>
+      <c r="Q47" s="1" t="inlineStr">
+        <is>
+          <t>분노의주먹</t>
+        </is>
+      </c>
+      <c r="R47" s="1" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>삼두일족응</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H48" s="1" t="inlineStr">
+        <is>
+          <t>머리 셋 다리 하나의 매로 삼재를 물리친다는 의미의 상징적 존재</t>
+        </is>
+      </c>
+      <c r="I48" s="1" t="inlineStr">
+        <is>
+          <t>가시털</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
+          <t>날개베기</t>
+        </is>
+      </c>
+      <c r="L48" s="1" t="inlineStr">
+        <is>
+          <t>바람발</t>
+        </is>
+      </c>
+      <c r="M48" s="1" t="inlineStr">
+        <is>
+          <t>할퀴기</t>
+        </is>
+      </c>
+      <c r="N48" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="O48" s="1" t="inlineStr">
+        <is>
+          <t>폭풍의깃</t>
+        </is>
+      </c>
+      <c r="P48" s="1" t="inlineStr">
+        <is>
+          <t>꼬리후려치기</t>
+        </is>
+      </c>
+      <c r="Q48" s="1" t="inlineStr">
+        <is>
+          <t>깨물어부수기</t>
+        </is>
+      </c>
+      <c r="R48" s="1" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>삼족구</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>발이 세 개인 개로 몸집이 작지만 악귀를 물리친다</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J49" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="K49" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="L49" s="1" t="inlineStr">
+        <is>
+          <t>짖기</t>
+        </is>
+      </c>
+      <c r="M49" s="1" t="inlineStr">
+        <is>
+          <t>꼬리후려치기</t>
+        </is>
+      </c>
+      <c r="N49" s="1" t="inlineStr">
+        <is>
+          <t>물어뜯기</t>
+        </is>
+      </c>
+      <c r="O49" s="1" t="inlineStr">
+        <is>
+          <t>숨은송곳니</t>
+        </is>
+      </c>
+      <c r="P49" s="1" t="inlineStr">
+        <is>
+          <t>깨물어부수기</t>
+        </is>
+      </c>
+      <c r="Q49" s="1" t="inlineStr"/>
+      <c r="R49" s="1" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>삼족섬</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="H50" s="1" t="inlineStr">
+        <is>
+          <t>세 개의 섬을 떠돌며 저주를 퍼뜨린다</t>
+        </is>
+      </c>
+      <c r="I50" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="J50" s="1" t="inlineStr">
+        <is>
+          <t>독꽃던지기</t>
+        </is>
+      </c>
+      <c r="K50" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="L50" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="M50" s="1" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="N50" s="1" t="inlineStr">
+        <is>
+          <t>염력</t>
+        </is>
+      </c>
+      <c r="O50" s="1" t="inlineStr">
+        <is>
+          <t>망각의노래</t>
+        </is>
+      </c>
+      <c r="P50" s="1" t="inlineStr">
+        <is>
+          <t>환영분열</t>
+        </is>
+      </c>
+      <c r="Q50" s="1" t="inlineStr">
+        <is>
+          <t>지옥기운</t>
+        </is>
+      </c>
+      <c r="R50" s="1" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>상사석탕</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H51" s="1" t="inlineStr">
+        <is>
+          <t>사랑의 집착으로 변한 거대한 뱀</t>
+        </is>
+      </c>
+      <c r="I51" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J51" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="K51" s="1" t="inlineStr">
+        <is>
+          <t>독침</t>
+        </is>
+      </c>
+      <c r="L51" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="M51" s="1" t="inlineStr">
+        <is>
+          <t>사슬채찍</t>
+        </is>
+      </c>
+      <c r="N51" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="O51" s="1" t="inlineStr">
+        <is>
+          <t>꼬리후려치기</t>
+        </is>
+      </c>
+      <c r="P51" s="1" t="inlineStr">
+        <is>
+          <t>맹독침</t>
+        </is>
+      </c>
+      <c r="Q51" s="1" t="inlineStr">
+        <is>
+          <t>사념의박치기</t>
+        </is>
+      </c>
+      <c r="R51" s="1" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>새타니</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="H52" s="1" t="inlineStr">
+        <is>
+          <t>어릴 때 죽은 아이의 혼으로 무당에게 영험을 내리는 귀신</t>
+        </is>
+      </c>
+      <c r="I52" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J52" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="K52" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="L52" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="M52" s="1" t="inlineStr">
+        <is>
+          <t>음파</t>
+        </is>
+      </c>
+      <c r="N52" s="1" t="inlineStr">
+        <is>
+          <t>검은연못</t>
+        </is>
+      </c>
+      <c r="O52" s="1" t="inlineStr">
+        <is>
+          <t>망자의손</t>
+        </is>
+      </c>
+      <c r="P52" s="1" t="inlineStr">
+        <is>
+          <t>염력</t>
+        </is>
+      </c>
+      <c r="Q52" s="1" t="inlineStr">
+        <is>
+          <t>어둠손길</t>
+        </is>
+      </c>
+      <c r="R52" s="1" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>선묘</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>삭제됨</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>140</v>
+      </c>
+      <c r="H53" s="3" t="inlineStr">
+        <is>
+          <t>의상대사를 따르던 선녀이자 용으로 부석사를 수호하는 존재</t>
+        </is>
+      </c>
+      <c r="I53" s="3" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>바람칼</t>
+        </is>
+      </c>
+      <c r="K53" s="3" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="L53" s="3" t="inlineStr">
+        <is>
+          <t>짖기</t>
+        </is>
+      </c>
+      <c r="M53" s="3" t="inlineStr">
+        <is>
+          <t>할퀴기</t>
+        </is>
+      </c>
+      <c r="N53" s="3" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="O53" s="3" t="inlineStr">
+        <is>
+          <t>바람발</t>
+        </is>
+      </c>
+      <c r="P53" s="3" t="inlineStr"/>
+      <c r="Q53" s="3" t="inlineStr"/>
+      <c r="R53" s="3" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>소인</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="H54" s="1" t="inlineStr">
+        <is>
+          <t>검을 사랑해 무한 전투를 벌이는 작은 전사</t>
+        </is>
+      </c>
+      <c r="I54" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J54" s="1" t="inlineStr">
+        <is>
+          <t>불씨던지기</t>
+        </is>
+      </c>
+      <c r="K54" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="L54" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="M54" s="1" t="inlineStr">
+        <is>
+          <t>쇠방울던지기</t>
+        </is>
+      </c>
+      <c r="N54" s="1" t="inlineStr">
+        <is>
+          <t>예측공격</t>
+        </is>
+      </c>
+      <c r="O54" s="1" t="inlineStr">
+        <is>
+          <t>철화살</t>
+        </is>
+      </c>
+      <c r="P54" s="1" t="inlineStr">
+        <is>
+          <t>이단도약</t>
+        </is>
+      </c>
+      <c r="Q54" s="1" t="inlineStr"/>
+      <c r="R54" s="1" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>손돌</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="H55" s="1" t="inlineStr">
+        <is>
+          <t>매끄러운 돌로 이루어진 거대한 구체가 땅을 진동시킨다</t>
+        </is>
+      </c>
+      <c r="I55" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J55" s="1" t="inlineStr">
+        <is>
+          <t>불꽃치기</t>
+        </is>
+      </c>
+      <c r="K55" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="L55" s="1" t="inlineStr">
+        <is>
+          <t>진흙던지기</t>
+        </is>
+      </c>
+      <c r="M55" s="1" t="inlineStr">
+        <is>
+          <t>가시돌진</t>
+        </is>
+      </c>
+      <c r="N55" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="O55" s="1" t="inlineStr">
+        <is>
+          <t>천지개벽</t>
+        </is>
+      </c>
+      <c r="P55" s="1" t="inlineStr"/>
+      <c r="Q55" s="1" t="inlineStr"/>
+      <c r="R55" s="1" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>수금아</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="H56" s="1" t="inlineStr">
+        <is>
+          <t>뱀과 개구리의 혼합으로 태어난 기이체</t>
+        </is>
+      </c>
+      <c r="I56" s="1" t="inlineStr">
+        <is>
+          <t>가시털</t>
+        </is>
+      </c>
+      <c r="J56" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="K56" s="1" t="inlineStr">
+        <is>
+          <t>독침</t>
+        </is>
+      </c>
+      <c r="L56" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="M56" s="1" t="inlineStr">
+        <is>
+          <t>가시돌진</t>
+        </is>
+      </c>
+      <c r="N56" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="O56" s="1" t="inlineStr">
+        <is>
+          <t>가시벽</t>
+        </is>
+      </c>
+      <c r="P56" s="1" t="inlineStr">
+        <is>
+          <t>맹독침</t>
+        </is>
+      </c>
+      <c r="Q56" s="1" t="inlineStr">
+        <is>
+          <t>사념의박치기</t>
+        </is>
+      </c>
+      <c r="R56" s="1" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>수면요마</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="E57" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="H57" s="1" t="inlineStr">
+        <is>
+          <t>어두운 밤마다 나타나 잠든 사람을 괴롭히는 요마로 꿈과 현실의 경계를 무너뜨린다</t>
+        </is>
+      </c>
+      <c r="I57" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J57" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="K57" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="L57" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="M57" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="N57" s="1" t="inlineStr">
+        <is>
+          <t>염력</t>
+        </is>
+      </c>
+      <c r="O57" s="1" t="inlineStr">
+        <is>
+          <t>혼령의숨</t>
+        </is>
+      </c>
+      <c r="P57" s="1" t="inlineStr">
+        <is>
+          <t>망각의노래</t>
+        </is>
+      </c>
+      <c r="Q57" s="1" t="inlineStr">
+        <is>
+          <t>어둠손길</t>
+        </is>
+      </c>
+      <c r="R57" s="1" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>수일이참대</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E58" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="H58" s="1" t="inlineStr">
+        <is>
+          <t>작은 도마뱀 모습을 한 요괴로로 칼로 자르면 잘린 부위가 더 커져 이무기의 모습으로 변한다</t>
+        </is>
+      </c>
+      <c r="I58" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J58" s="1" t="inlineStr">
+        <is>
+          <t>불꽃치기</t>
+        </is>
+      </c>
+      <c r="K58" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="L58" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="M58" s="1" t="inlineStr">
+        <is>
+          <t>할퀴기</t>
+        </is>
+      </c>
+      <c r="N58" s="1" t="inlineStr">
+        <is>
+          <t>가시돌진</t>
+        </is>
+      </c>
+      <c r="O58" s="1" t="inlineStr">
+        <is>
+          <t>불길장벽</t>
+        </is>
+      </c>
+      <c r="P58" s="1" t="inlineStr">
+        <is>
+          <t>용암분출</t>
+        </is>
+      </c>
+      <c r="Q58" s="1" t="inlineStr"/>
+      <c r="R58" s="1" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>슬렌더맨</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="E59" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="H59" s="1" t="inlineStr">
+        <is>
+          <t>이목구비가 없는 키가 큰 인간의 모습으로 촉수와 환영으로 사람들의 정신줄을 놓게 한다</t>
+        </is>
+      </c>
+      <c r="I59" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J59" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="K59" s="1" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="L59" s="1" t="inlineStr">
+        <is>
+          <t>염력</t>
+        </is>
+      </c>
+      <c r="M59" s="1" t="inlineStr">
+        <is>
+          <t>달빛무도</t>
+        </is>
+      </c>
+      <c r="N59" s="1" t="inlineStr">
+        <is>
+          <t>속임수베기</t>
+        </is>
+      </c>
+      <c r="O59" s="1" t="inlineStr">
+        <is>
+          <t>환영분열</t>
+        </is>
+      </c>
+      <c r="P59" s="1" t="inlineStr">
+        <is>
+          <t>환영술</t>
+        </is>
+      </c>
+      <c r="Q59" s="1" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+      <c r="R59" s="1" t="inlineStr">
+        <is>
+          <t>지옥기운</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>신구</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="E60" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F60" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="H60" s="1" t="inlineStr">
+        <is>
+          <t>눈이 3개 혹은 4개 달린 개로 악운을 쫓는다</t>
+        </is>
+      </c>
+      <c r="I60" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J60" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="K60" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="L60" s="1" t="inlineStr">
+        <is>
+          <t>짖기</t>
+        </is>
+      </c>
+      <c r="M60" s="1" t="inlineStr">
+        <is>
+          <t>할퀴기</t>
+        </is>
+      </c>
+      <c r="N60" s="1" t="inlineStr">
+        <is>
+          <t>꼬리후려치기</t>
+        </is>
+      </c>
+      <c r="O60" s="1" t="inlineStr">
+        <is>
+          <t>물어뜯기</t>
+        </is>
+      </c>
+      <c r="P60" s="1" t="inlineStr">
+        <is>
+          <t>울부짖기</t>
+        </is>
+      </c>
+      <c r="Q60" s="1" t="inlineStr">
+        <is>
+          <t>깨물어부수기</t>
+        </is>
+      </c>
+      <c r="R60" s="1" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>신지께</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="F61" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="H61" s="1" t="inlineStr">
+        <is>
+          <t>바다의 부름을 전하는 인어 원혼</t>
+        </is>
+      </c>
+      <c r="I61" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="J61" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="K61" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="L61" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="M61" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="N61" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="O61" s="1" t="inlineStr">
+        <is>
+          <t>혼령의숨</t>
+        </is>
+      </c>
+      <c r="P61" s="1" t="inlineStr">
+        <is>
+          <t>강철꼬리치기</t>
+        </is>
+      </c>
+      <c r="Q61" s="1" t="inlineStr"/>
+      <c r="R61" s="1" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>쌍두사목</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E62" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F62" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H62" s="1" t="inlineStr">
+        <is>
+          <t>머리가 둘 눈이 넷 처럼 보이는 뿔이 달린 괴물</t>
+        </is>
+      </c>
+      <c r="I62" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J62" s="1" t="inlineStr">
+        <is>
+          <t>불씨던지기</t>
+        </is>
+      </c>
+      <c r="K62" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="L62" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="M62" s="1" t="inlineStr">
+        <is>
+          <t>진흙던지기</t>
+        </is>
+      </c>
+      <c r="N62" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="O62" s="1" t="inlineStr">
+        <is>
+          <t>어퍼컷</t>
+        </is>
+      </c>
+      <c r="P62" s="1" t="inlineStr">
+        <is>
+          <t>후려치기</t>
+        </is>
+      </c>
+      <c r="Q62" s="1" t="inlineStr">
+        <is>
+          <t>사념의박치기</t>
+        </is>
+      </c>
+      <c r="R62" s="1" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>아랑</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="F63" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H63" s="1" t="inlineStr">
+        <is>
+          <t>억울하게 죽은 궁녀의 원혼이 울부짖으며 원한을 풀지 못한다</t>
+        </is>
+      </c>
+      <c r="I63" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="J63" s="1" t="inlineStr">
+        <is>
+          <t>진흙던지기</t>
+        </is>
+      </c>
+      <c r="K63" s="1" t="inlineStr">
+        <is>
+          <t>독꽃던지기</t>
+        </is>
+      </c>
+      <c r="L63" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="M63" s="1" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="N63" s="1" t="inlineStr">
+        <is>
+          <t>흙폭탄</t>
+        </is>
+      </c>
+      <c r="O63" s="1" t="inlineStr">
+        <is>
+          <t>귀신의사슬</t>
+        </is>
+      </c>
+      <c r="P63" s="1" t="inlineStr">
+        <is>
+          <t>망각의노래</t>
+        </is>
+      </c>
+      <c r="Q63" s="1" t="inlineStr">
+        <is>
+          <t>피눈물베기</t>
+        </is>
+      </c>
+      <c r="R63" s="1" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>야광귀</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E64" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F64" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="H64" s="1" t="inlineStr">
+        <is>
+          <t>빛나는 살점을 드러내며 어둠 속에서 빛을 뽐낸다</t>
+        </is>
+      </c>
+      <c r="I64" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J64" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="K64" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="L64" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="M64" s="1" t="inlineStr">
+        <is>
+          <t>음파</t>
+        </is>
+      </c>
+      <c r="N64" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="O64" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="P64" s="1" t="inlineStr">
+        <is>
+          <t>암흑회오리</t>
+        </is>
+      </c>
+      <c r="Q64" s="1" t="inlineStr"/>
+      <c r="R64" s="1" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>역귀</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="E65" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H65" s="1" t="inlineStr">
+        <is>
+          <t>뒤틀린 원한이 깃든 몸으로 영혼을 사냥한다</t>
+        </is>
+      </c>
+      <c r="I65" s="1" t="inlineStr">
+        <is>
+          <t>부채베기</t>
+        </is>
+      </c>
+      <c r="J65" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="K65" s="1" t="inlineStr">
+        <is>
+          <t>독꽃던지기</t>
+        </is>
+      </c>
+      <c r="L65" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="M65" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="N65" s="1" t="inlineStr">
+        <is>
+          <t>쇠방울던지기</t>
+        </is>
+      </c>
+      <c r="O65" s="1" t="inlineStr">
+        <is>
+          <t>철화살</t>
+        </is>
+      </c>
+      <c r="P65" s="1" t="inlineStr">
+        <is>
+          <t>속임수베기</t>
+        </is>
+      </c>
+      <c r="Q65" s="1" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+      <c r="R65" s="1" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>연산 물귀신</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="E66" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F66" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="H66" s="1" t="inlineStr">
+        <is>
+          <t>아직 풀리지 못한 한 번의 외침이 맴돈다</t>
+        </is>
+      </c>
+      <c r="I66" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="J66" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="K66" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="L66" s="1" t="inlineStr">
+        <is>
+          <t>영혼폭포</t>
+        </is>
+      </c>
+      <c r="M66" s="1" t="inlineStr">
+        <is>
+          <t>폭음파</t>
+        </is>
+      </c>
+      <c r="N66" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="O66" s="1" t="inlineStr"/>
+      <c r="P66" s="1" t="inlineStr"/>
+      <c r="Q66" s="1" t="inlineStr"/>
+      <c r="R66" s="1" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>오니</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H67" s="1" t="inlineStr">
+        <is>
+          <t>악인을 벌하거나 사람을 잡아먹는 무시무시한 요괴</t>
+        </is>
+      </c>
+      <c r="I67" s="1" t="inlineStr">
+        <is>
+          <t>지옥기운</t>
+        </is>
+      </c>
+      <c r="J67" s="1" t="inlineStr">
+        <is>
+          <t>지옥불</t>
+        </is>
+      </c>
+      <c r="K67" s="1" t="inlineStr">
+        <is>
+          <t>지옥폭뢰</t>
+        </is>
+      </c>
+      <c r="L67" s="1" t="inlineStr">
+        <is>
+          <t>피눈물베기</t>
+        </is>
+      </c>
+      <c r="M67" s="1" t="inlineStr">
+        <is>
+          <t>속임수베기</t>
+        </is>
+      </c>
+      <c r="N67" s="1" t="inlineStr">
+        <is>
+          <t>달그림자베기</t>
+        </is>
+      </c>
+      <c r="O67" s="1" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+      <c r="P67" s="1" t="inlineStr">
+        <is>
+          <t>환영술</t>
+        </is>
+      </c>
+      <c r="Q67" s="1" t="inlineStr"/>
+      <c r="R67" s="1" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>우투리</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>변경됨</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>공중을 날며 국가를 위협한 신생 전사</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>사념의박치기</t>
+        </is>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>독꽃던지기</t>
+        </is>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
+        <is>
+          <t>돌가루</t>
+        </is>
+      </c>
+      <c r="M68" s="2" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="N68" s="2" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="O68" s="2" t="inlineStr">
+        <is>
+          <t>파멸의망치</t>
+        </is>
+      </c>
+      <c r="P68" s="2" t="inlineStr">
+        <is>
+          <t>무궁화발차기</t>
+        </is>
+      </c>
+      <c r="Q68" s="2" t="inlineStr">
+        <is>
+          <t>귀신의사슬</t>
+        </is>
+      </c>
+      <c r="R68" s="2" t="inlineStr">
+        <is>
+          <t>혼신의부채베기</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>유엽화</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="F69" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="H69" s="1" t="inlineStr">
+        <is>
+          <t>숲의 잎사귀로 몸을 감싸 위장하며 적에게 달려든다</t>
+        </is>
+      </c>
+      <c r="I69" s="1" t="inlineStr">
+        <is>
+          <t>가시털</t>
+        </is>
+      </c>
+      <c r="J69" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="K69" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="L69" s="1" t="inlineStr">
+        <is>
+          <t>진흙던지기</t>
+        </is>
+      </c>
+      <c r="M69" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="N69" s="1" t="inlineStr">
+        <is>
+          <t>폭풍의깃</t>
+        </is>
+      </c>
+      <c r="O69" s="1" t="inlineStr">
+        <is>
+          <t>사념의박치기</t>
+        </is>
+      </c>
+      <c r="P69" s="1" t="inlineStr"/>
+      <c r="Q69" s="1" t="inlineStr"/>
+      <c r="R69" s="1" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>육혼</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="E70" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F70" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="H70" s="1" t="inlineStr">
+        <is>
+          <t>혼령 여섯의 원한이 얽힌 무형의 존재로 이름을 부르며 상대를 저주한다</t>
+        </is>
+      </c>
+      <c r="I70" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="J70" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="K70" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="L70" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="M70" s="1" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="N70" s="1" t="inlineStr">
+        <is>
+          <t>흙폭탄</t>
+        </is>
+      </c>
+      <c r="O70" s="1" t="inlineStr">
+        <is>
+          <t>귀신의사슬</t>
+        </is>
+      </c>
+      <c r="P70" s="1" t="inlineStr">
+        <is>
+          <t>환영분열</t>
+        </is>
+      </c>
+      <c r="Q70" s="1" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+      <c r="R70" s="1" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>의가작수</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E71" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="F71" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="H71" s="1" t="inlineStr">
+        <is>
+          <t>죽은 자를 부활시켜 전투하게 하는 망령장</t>
+        </is>
+      </c>
+      <c r="I71" s="1" t="inlineStr">
+        <is>
+          <t>불꽃치기</t>
+        </is>
+      </c>
+      <c r="J71" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="K71" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="L71" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="M71" s="1" t="inlineStr">
+        <is>
+          <t>얼음창</t>
+        </is>
+      </c>
+      <c r="N71" s="1" t="inlineStr">
+        <is>
+          <t>영혼폭포</t>
+        </is>
+      </c>
+      <c r="O71" s="1" t="inlineStr">
+        <is>
+          <t>혼령메아리</t>
+        </is>
+      </c>
+      <c r="P71" s="1" t="inlineStr"/>
+      <c r="Q71" s="1" t="inlineStr"/>
+      <c r="R71" s="1" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>이매망량</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="E72" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F72" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="H72" s="1" t="inlineStr">
+        <is>
+          <t>어두운 밤길에서 사람 홀리는 요괴</t>
+        </is>
+      </c>
+      <c r="I72" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J72" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="K72" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="L72" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="M72" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="N72" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="O72" s="1" t="inlineStr">
+        <is>
+          <t>폭음파</t>
+        </is>
+      </c>
+      <c r="P72" s="1" t="inlineStr">
+        <is>
+          <t>혼령의숨</t>
+        </is>
+      </c>
+      <c r="Q72" s="1" t="inlineStr">
+        <is>
+          <t>어둠손길</t>
+        </is>
+      </c>
+      <c r="R72" s="1" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>이목룡</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E73" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F73" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="H73" s="1" t="inlineStr">
+        <is>
+          <t>배나무를 살린 용이란 이름으로 가뭄이 심할 때 비를 내리게 했다</t>
+        </is>
+      </c>
+      <c r="I73" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J73" s="1" t="inlineStr">
+        <is>
+          <t>불꽃치기</t>
+        </is>
+      </c>
+      <c r="K73" s="1" t="inlineStr">
+        <is>
+          <t>불씨던지기</t>
+        </is>
+      </c>
+      <c r="L73" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="M73" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="N73" s="1" t="inlineStr">
+        <is>
+          <t>짖기</t>
+        </is>
+      </c>
+      <c r="O73" s="1" t="inlineStr">
+        <is>
+          <t>불길장벽</t>
+        </is>
+      </c>
+      <c r="P73" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="Q73" s="1" t="inlineStr">
+        <is>
+          <t>맹화</t>
+        </is>
+      </c>
+      <c r="R73" s="1" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>이올</t>
+        </is>
+      </c>
+      <c r="B74" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D74" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E74" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="H74" s="1" t="inlineStr">
+        <is>
+          <t>자의 기척을 지우며 은밀하게 다가드는 창귀로 방해와 회피에 특화되어 있다</t>
+        </is>
+      </c>
+      <c r="I74" s="1" t="inlineStr">
+        <is>
+          <t>진흙던지기</t>
+        </is>
+      </c>
+      <c r="J74" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="K74" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="L74" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="M74" s="1" t="inlineStr">
+        <is>
+          <t>독꽃던지기</t>
+        </is>
+      </c>
+      <c r="N74" s="1" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="O74" s="1" t="inlineStr">
+        <is>
+          <t>염력</t>
+        </is>
+      </c>
+      <c r="P74" s="1" t="inlineStr">
+        <is>
+          <t>폭음파</t>
+        </is>
+      </c>
+      <c r="Q74" s="1" t="inlineStr">
+        <is>
+          <t>암흑회오리</t>
+        </is>
+      </c>
+      <c r="R74" s="1" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>인두조수</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="E75" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="H75" s="1" t="inlineStr">
+        <is>
+          <t>불 타는 고통을 전달하는 열받은 요괴</t>
+        </is>
+      </c>
+      <c r="I75" s="1" t="inlineStr">
+        <is>
+          <t>불꽃치기</t>
+        </is>
+      </c>
+      <c r="J75" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="K75" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="L75" s="1" t="inlineStr">
+        <is>
+          <t>음파</t>
+        </is>
+      </c>
+      <c r="M75" s="1" t="inlineStr">
+        <is>
+          <t>불길장벽</t>
+        </is>
+      </c>
+      <c r="N75" s="1" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="O75" s="1" t="inlineStr">
+        <is>
+          <t>폭음파</t>
+        </is>
+      </c>
+      <c r="P75" s="1" t="inlineStr">
+        <is>
+          <t>혼돈의폭발</t>
+        </is>
+      </c>
+      <c r="Q75" s="1" t="inlineStr"/>
+      <c r="R75" s="1" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>일촌법사</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>변경됨</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>HUMAN</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>마을을 지키는 수행자의 원혼이 신기를 발휘한다</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>혼신의채베기</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>진흙던지기</t>
+        </is>
+      </c>
+      <c r="M76" s="2" t="inlineStr">
+        <is>
+          <t>부채베기</t>
+        </is>
+      </c>
+      <c r="N76" s="2" t="inlineStr">
+        <is>
+          <t>호미찌르기</t>
+        </is>
+      </c>
+      <c r="O76" s="2" t="inlineStr">
+        <is>
+          <t>바람칼</t>
+        </is>
+      </c>
+      <c r="P76" s="2" t="inlineStr"/>
+      <c r="Q76" s="2" t="inlineStr"/>
+      <c r="R76" s="2" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>자유로귀신</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="E77" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F77" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G77" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H77" s="1" t="inlineStr">
+        <is>
+          <t>1990년대 이후 자유로에서 목격된 여귀</t>
+        </is>
+      </c>
+      <c r="I77" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J77" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="K77" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="L77" s="1" t="inlineStr">
+        <is>
+          <t>음파</t>
+        </is>
+      </c>
+      <c r="M77" s="1" t="inlineStr">
+        <is>
+          <t>정전기</t>
+        </is>
+      </c>
+      <c r="N77" s="1" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="O77" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="P77" s="1" t="inlineStr"/>
+      <c r="Q77" s="1" t="inlineStr"/>
+      <c r="R77" s="1" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>장두사</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E78" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="H78" s="1" t="inlineStr">
+        <is>
+          <t>머리 없이 몸만 남겨진 잔혹한 살육의 화신이다</t>
+        </is>
+      </c>
+      <c r="I78" s="1" t="inlineStr">
+        <is>
+          <t>가시털</t>
+        </is>
+      </c>
+      <c r="J78" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="K78" s="1" t="inlineStr">
+        <is>
+          <t>불씨던지기</t>
+        </is>
+      </c>
+      <c r="L78" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="M78" s="1" t="inlineStr">
+        <is>
+          <t>할퀴기</t>
+        </is>
+      </c>
+      <c r="N78" s="1" t="inlineStr">
+        <is>
+          <t>가시돌진</t>
+        </is>
+      </c>
+      <c r="O78" s="1" t="inlineStr">
+        <is>
+          <t>불길장벽</t>
+        </is>
+      </c>
+      <c r="P78" s="1" t="inlineStr">
+        <is>
+          <t>꼬리후려치기</t>
+        </is>
+      </c>
+      <c r="Q78" s="1" t="inlineStr">
+        <is>
+          <t>태산벽력</t>
+        </is>
+      </c>
+      <c r="R78" s="1" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>장산범</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E79" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="F79" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="G79" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="H79" s="1" t="inlineStr">
+        <is>
+          <t>부산의 장산에 사는 비단같은 털을 가진 호랑이로 환각을 일으켜 사람들을 홀린다</t>
+        </is>
+      </c>
+      <c r="I79" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="J79" s="1" t="inlineStr">
+        <is>
+          <t>할퀴기</t>
+        </is>
+      </c>
+      <c r="K79" s="1" t="inlineStr">
+        <is>
+          <t>망각의노래</t>
+        </is>
+      </c>
+      <c r="L79" s="1" t="inlineStr">
+        <is>
+          <t>환영술</t>
+        </is>
+      </c>
+      <c r="M79" s="1" t="inlineStr">
+        <is>
+          <t>호랑이눈빛</t>
+        </is>
+      </c>
+      <c r="N79" s="1" t="inlineStr">
+        <is>
+          <t>호랑이발톱</t>
+        </is>
+      </c>
+      <c r="O79" s="1" t="inlineStr">
+        <is>
+          <t>백호의울음</t>
+        </is>
+      </c>
+      <c r="P79" s="1" t="inlineStr"/>
+      <c r="Q79" s="1" t="inlineStr"/>
+      <c r="R79" s="1" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>적염귀</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E80" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="F80" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="G80" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="H80" s="1" t="inlineStr">
+        <is>
+          <t>용재총화에 등장하는 붉은 수염을 한 귀신</t>
+        </is>
+      </c>
+      <c r="I80" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J80" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="K80" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="L80" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="M80" s="1" t="inlineStr">
+        <is>
+          <t>정전기</t>
+        </is>
+      </c>
+      <c r="N80" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="O80" s="1" t="inlineStr">
+        <is>
+          <t>폭음파</t>
+        </is>
+      </c>
+      <c r="P80" s="1" t="inlineStr">
+        <is>
+          <t>혼령의숨</t>
+        </is>
+      </c>
+      <c r="Q80" s="1" t="inlineStr">
+        <is>
+          <t>그림자베기</t>
+        </is>
+      </c>
+      <c r="R80" s="1" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>제생요마</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>HUMAN</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="E81" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F81" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="G81" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="H81" s="1" t="inlineStr">
+        <is>
+          <t>삿갓과 도롱이를 쓴 다리가 하나인 인간 모습의 요괴</t>
+        </is>
+      </c>
+      <c r="I81" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="J81" s="1" t="inlineStr">
+        <is>
+          <t>부채베기</t>
+        </is>
+      </c>
+      <c r="K81" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="L81" s="1" t="inlineStr">
+        <is>
+          <t>호미찌르기</t>
+        </is>
+      </c>
+      <c r="M81" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="N81" s="1" t="inlineStr">
+        <is>
+          <t>바람칼</t>
+        </is>
+      </c>
+      <c r="O81" s="1" t="inlineStr">
+        <is>
+          <t>후려치기</t>
+        </is>
+      </c>
+      <c r="P81" s="1" t="inlineStr">
+        <is>
+          <t>철퇴내리치기</t>
+        </is>
+      </c>
+      <c r="Q81" s="1" t="inlineStr"/>
+      <c r="R81" s="1" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>조마귀</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E82" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H82" s="1" t="inlineStr">
+        <is>
+          <t>달빛 아래 피땀을 흘리며 복수를 다짐하는 원혼이다</t>
+        </is>
+      </c>
+      <c r="I82" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="J82" s="1" t="inlineStr">
+        <is>
+          <t>독꽃던지기</t>
+        </is>
+      </c>
+      <c r="K82" s="1" t="inlineStr">
+        <is>
+          <t>돌가루</t>
+        </is>
+      </c>
+      <c r="L82" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="M82" s="1" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="N82" s="1" t="inlineStr">
+        <is>
+          <t>예측공격</t>
+        </is>
+      </c>
+      <c r="O82" s="1" t="inlineStr">
+        <is>
+          <t>망각의노래</t>
+        </is>
+      </c>
+      <c r="P82" s="1" t="inlineStr">
+        <is>
+          <t>환영술</t>
+        </is>
+      </c>
+      <c r="Q82" s="1" t="inlineStr">
+        <is>
+          <t>지옥불</t>
+        </is>
+      </c>
+      <c r="R82" s="1" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>지귀</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="E83" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="H83" s="1" t="inlineStr">
+        <is>
+          <t>죽은 자의 지식으로 상대의 약점을 꿰뚫어본다</t>
+        </is>
+      </c>
+      <c r="I83" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J83" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="K83" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="L83" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="M83" s="1" t="inlineStr">
+        <is>
+          <t>망자의손</t>
+        </is>
+      </c>
+      <c r="N83" s="1" t="inlineStr">
+        <is>
+          <t>혼령의숨</t>
+        </is>
+      </c>
+      <c r="O83" s="1" t="inlineStr">
+        <is>
+          <t>환영술</t>
+        </is>
+      </c>
+      <c r="P83" s="1" t="inlineStr">
+        <is>
+          <t>혼령메아리</t>
+        </is>
+      </c>
+      <c r="Q83" s="1" t="inlineStr"/>
+      <c r="R83" s="1" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>지축</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E84" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="F84" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="G84" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="H84" s="1" t="inlineStr">
+        <is>
+          <t>대지를 뒤흔드는 힘으로 적진을 쓸어버리는 거대 괴수이다</t>
+        </is>
+      </c>
+      <c r="I84" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J84" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="K84" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="L84" s="1" t="inlineStr">
+        <is>
+          <t>할퀴기</t>
+        </is>
+      </c>
+      <c r="M84" s="1" t="inlineStr">
+        <is>
+          <t>불길장벽</t>
+        </is>
+      </c>
+      <c r="N84" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="O84" s="1" t="inlineStr">
+        <is>
+          <t>천지개벽</t>
+        </is>
+      </c>
+      <c r="P84" s="1" t="inlineStr"/>
+      <c r="Q84" s="1" t="inlineStr"/>
+      <c r="R84" s="1" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>착착귀신</t>
+        </is>
+      </c>
+      <c r="B85" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C85" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D85" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="E85" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="F85" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="G85" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="H85" s="1" t="inlineStr">
+        <is>
+          <t>발소리만 남기고 사라지는 기이한 원혼이다</t>
+        </is>
+      </c>
+      <c r="I85" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="J85" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="K85" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="L85" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="M85" s="1" t="inlineStr">
+        <is>
+          <t>속임수</t>
+        </is>
+      </c>
+      <c r="N85" s="1" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="O85" s="1" t="inlineStr">
+        <is>
+          <t>혼령의숨</t>
+        </is>
+      </c>
+      <c r="P85" s="1" t="inlineStr">
+        <is>
+          <t>환영분열</t>
+        </is>
+      </c>
+      <c r="Q85" s="1" t="inlineStr"/>
+      <c r="R85" s="1" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>처녀귀신</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E86" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F86" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G86" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="H86" s="1" t="inlineStr">
+        <is>
+          <t>죽음으로 원한이 가득한 처녀귀신으로 현세에 강한 영향을 준다</t>
+        </is>
+      </c>
+      <c r="I86" s="1" t="inlineStr">
+        <is>
+          <t>부채베기</t>
+        </is>
+      </c>
+      <c r="J86" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="K86" s="1" t="inlineStr">
+        <is>
+          <t>독꽃던지기</t>
+        </is>
+      </c>
+      <c r="L86" s="1" t="inlineStr">
+        <is>
+          <t>돌가루</t>
+        </is>
+      </c>
+      <c r="M86" s="1" t="inlineStr">
+        <is>
+          <t>새벽의속삭임</t>
+        </is>
+      </c>
+      <c r="N86" s="1" t="inlineStr">
+        <is>
+          <t>헛소리</t>
+        </is>
+      </c>
+      <c r="O86" s="1" t="inlineStr">
+        <is>
+          <t>쇠방울던지기</t>
+        </is>
+      </c>
+      <c r="P86" s="1" t="inlineStr">
+        <is>
+          <t>망각의노래</t>
+        </is>
+      </c>
+      <c r="Q86" s="1" t="inlineStr">
+        <is>
+          <t>피눈물베기</t>
+        </is>
+      </c>
+      <c r="R86" s="1" t="inlineStr">
+        <is>
+          <t>영혼흡수</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>처녀목귀</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C87" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E87" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="F87" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="G87" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="H87" s="1" t="inlineStr">
+        <is>
+          <t>목매달아 죽은 여인의 원혼이 되살아난 귀신으로 저주와 울음으로 원한을 퍼뜨린다</t>
+        </is>
+      </c>
+      <c r="I87" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J87" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="K87" s="1" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="L87" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="M87" s="1" t="inlineStr">
+        <is>
+          <t>예측공격</t>
+        </is>
+      </c>
+      <c r="N87" s="1" t="inlineStr">
+        <is>
+          <t>흙폭탄</t>
+        </is>
+      </c>
+      <c r="O87" s="1" t="inlineStr">
+        <is>
+          <t>달빛무도</t>
+        </is>
+      </c>
+      <c r="P87" s="1" t="inlineStr">
+        <is>
+          <t>환영술</t>
+        </is>
+      </c>
+      <c r="Q87" s="1" t="inlineStr">
+        <is>
+          <t>지옥기운</t>
+        </is>
+      </c>
+      <c r="R87" s="1" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>청너구리</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>ANIMAL</t>
+        </is>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="E88" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="F88" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="G88" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="H88" s="1" t="inlineStr">
+        <is>
+          <t>마을의 비밀을 훔치는 교활한 환영의 너구리이다</t>
+        </is>
+      </c>
+      <c r="I88" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J88" s="1" t="inlineStr">
+        <is>
+          <t>꼬리치기</t>
+        </is>
+      </c>
+      <c r="K88" s="1" t="inlineStr">
+        <is>
+          <t>물기</t>
+        </is>
+      </c>
+      <c r="L88" s="1" t="inlineStr">
+        <is>
+          <t>유혹하기</t>
+        </is>
+      </c>
+      <c r="M88" s="1" t="inlineStr">
+        <is>
+          <t>할퀴기</t>
+        </is>
+      </c>
+      <c r="N88" s="1" t="inlineStr">
+        <is>
+          <t>마구할퀴기</t>
+        </is>
+      </c>
+      <c r="O88" s="1" t="inlineStr">
+        <is>
+          <t>물어뜯기</t>
+        </is>
+      </c>
+      <c r="P88" s="1" t="inlineStr">
+        <is>
+          <t>울부짖기</t>
+        </is>
+      </c>
+      <c r="Q88" s="1" t="inlineStr">
+        <is>
+          <t>깨물어부수기</t>
+        </is>
+      </c>
+      <c r="R88" s="1" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>청우</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E89" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F89" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="G89" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="H89" s="1" t="inlineStr">
+        <is>
+          <t>먹구름처럼 몰려와 생명을 삼키는 비바람의 정령이다</t>
+        </is>
+      </c>
+      <c r="I89" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="J89" s="1" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="K89" s="1" t="inlineStr">
+        <is>
+          <t>그림자발바닥</t>
+        </is>
+      </c>
+      <c r="L89" s="1" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="M89" s="1" t="inlineStr">
+        <is>
+          <t>번개</t>
+        </is>
+      </c>
+      <c r="N89" s="1" t="inlineStr">
+        <is>
+          <t>얼음창</t>
+        </is>
+      </c>
+      <c r="O89" s="1" t="inlineStr">
+        <is>
+          <t>폭음파</t>
+        </is>
+      </c>
+      <c r="P89" s="1" t="inlineStr">
+        <is>
+          <t>뇌우</t>
+        </is>
+      </c>
+      <c r="Q89" s="1" t="inlineStr"/>
+      <c r="R89" s="1" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>태봉 궁녀귀신</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>삭제됨</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="H90" s="3" t="inlineStr">
+        <is>
+          <t>궁녀의 원한이 깃들어 은인의 후손을 찾아 헤매는 원혼</t>
+        </is>
+      </c>
+      <c r="I90" s="3" t="inlineStr">
+        <is>
+          <t>괴성</t>
+        </is>
+      </c>
+      <c r="J90" s="3" t="inlineStr">
+        <is>
+          <t>망령의눈빛</t>
+        </is>
+      </c>
+      <c r="K90" s="3" t="inlineStr">
+        <is>
+          <t>안개</t>
+        </is>
+      </c>
+      <c r="L90" s="3" t="inlineStr">
+        <is>
+          <t>음파</t>
+        </is>
+      </c>
+      <c r="M90" s="3" t="inlineStr">
+        <is>
+          <t>검은연기</t>
+        </is>
+      </c>
+      <c r="N90" s="3" t="inlineStr">
+        <is>
+          <t>영혼폭포</t>
+        </is>
+      </c>
+      <c r="O90" s="3" t="inlineStr">
+        <is>
+          <t>혼령의숨</t>
+        </is>
+      </c>
+      <c r="P90" s="3" t="inlineStr"/>
+      <c r="Q90" s="3" t="inlineStr"/>
+      <c r="R90" s="3" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>토주원</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C91" s="1" t="inlineStr">
+        <is>
+          <t>HUMAN</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="E91" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="G91" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="H91" s="1" t="inlineStr">
+        <is>
+          <t>고대 왕릉에 깃든 뼈 도깨비가 부활한 형체이다</t>
+        </is>
+      </c>
+      <c r="I91" s="1" t="inlineStr">
+        <is>
+          <t>돌던지기</t>
+        </is>
+      </c>
+      <c r="J91" s="1" t="inlineStr">
+        <is>
+          <t>소리지르기</t>
+        </is>
+      </c>
+      <c r="K91" s="1" t="inlineStr">
+        <is>
+          <t>진흙던지기</t>
+        </is>
+      </c>
+      <c r="L91" s="1" t="inlineStr">
+        <is>
+          <t>호미찌르기</t>
+        </is>
+      </c>
+      <c r="M91" s="1" t="inlineStr">
+        <is>
+          <t>바람칼</t>
+        </is>
+      </c>
+      <c r="N91" s="1" t="inlineStr">
+        <is>
+          <t>어퍼컷</t>
+        </is>
+      </c>
+      <c r="O91" s="1" t="inlineStr">
+        <is>
+          <t>흙폭탄</t>
+        </is>
+      </c>
+      <c r="P91" s="1" t="inlineStr">
+        <is>
+          <t>도깨비방망이</t>
+        </is>
+      </c>
+      <c r="Q91" s="1" t="inlineStr"/>
+      <c r="R91" s="1" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>퉁퉁퉁퉁 사후르</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="inlineStr">
+        <is>
+          <t>MONSTER</t>
+        </is>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="E92" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="H92" s="1" t="inlineStr">
+        <is>
+          <t>사후르를 먹으라고 세 번 불렀는데도 잠에서 깨지 않으면 집으로 오는 괴물이다</t>
+        </is>
+      </c>
+      <c r="I92" s="1" t="inlineStr">
+        <is>
+          <t>몸통박치기</t>
+        </is>
+      </c>
+      <c r="J92" s="1" t="inlineStr">
+        <is>
+          <t>연속박치기</t>
+        </is>
+      </c>
+      <c r="K92" s="1" t="inlineStr">
+        <is>
+          <t>예측공격</t>
+        </is>
+      </c>
+      <c r="L92" s="1" t="inlineStr">
+        <is>
+          <t>후려치기</t>
+        </is>
+      </c>
+      <c r="M92" s="1" t="inlineStr">
+        <is>
+          <t>도깨비방망이</t>
+        </is>
+      </c>
+      <c r="N92" s="1" t="inlineStr">
+        <is>
+          <t>철퇴내리치기</t>
+        </is>
+      </c>
+      <c r="O92" s="1" t="inlineStr">
+        <is>
+          <t>파멸의망치</t>
+        </is>
+      </c>
+      <c r="P92" s="1" t="inlineStr"/>
+      <c r="Q92" s="1" t="inlineStr"/>
+      <c r="R92" s="1" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>해중조</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>삭제됨</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>GHOST</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>115</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>120</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>125</v>
+      </c>
+      <c r="H93" s="3" t="inlineStr">
+        <is>
+          <t>바닷속 그리움으로 떠도는 수중의 원혼</t>
+        </is>
+      </c>
+      <c r="I93" s="3" t="inlineStr">
+        <is>
+          <t>음파</t>
+        </is>
+      </c>
+      <c r="J93" s="3" t="inlineStr">
+        <is>
+          <t>정전기</t>
+        </is>
+      </c>
+      <c r="K93" s="3" t="inlineStr">
+        <is>
+          <t>검은연못</t>
+        </is>
+      </c>
+      <c r="L93" s="3" t="inlineStr"/>
+      <c r="M93" s="3" t="inlineStr"/>
+      <c r="N93" s="3" t="inlineStr"/>
+      <c r="O93" s="3" t="inlineStr"/>
+      <c r="P93" s="3" t="inlineStr"/>
+      <c r="Q93" s="3" t="inlineStr"/>
+      <c r="R93" s="3" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>홍콩할매귀신</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="inlineStr">
+        <is>
+          <t>추가됨</t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="inlineStr">
+        <is>
+          <t>EVIL_SPIRIT</t>
+        </is>
+      </c>
+      <c r="D94" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="E94" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="H94" s="1" t="inlineStr">
+        <is>
+          <t>홍콩행 비행기에서 사고나 나 할머니와 고양이가 합쳐진 후 학생들을 살해하기 시작했다</t>
+        </is>
+      </c>
+      <c r="I94" s="1" t="inlineStr">
+        <is>
+          <t>괴성공명</t>
+        </is>
+      </c>
+      <c r="J94" s="1" t="inlineStr">
+        <is>
+          <t>망각의노래</t>
+        </is>
+      </c>
+      <c r="K94" s="1" t="inlineStr">
+        <is>
+          <t>속임수베기</t>
+        </is>
+      </c>
+      <c r="L94" s="1" t="inlineStr">
+        <is>
+          <t>요상한바람</t>
+        </is>
+      </c>
+      <c r="M94" s="1" t="inlineStr">
+        <is>
+          <t>피눈물베기</t>
+        </is>
+      </c>
+      <c r="N94" s="1" t="inlineStr">
+        <is>
+          <t>어둠손길</t>
+        </is>
+      </c>
+      <c r="O94" s="1" t="inlineStr">
+        <is>
+          <t>지옥기운</t>
+        </is>
+      </c>
+      <c r="P94" s="1" t="inlineStr"/>
+      <c r="Q94" s="1" t="inlineStr"/>
+      <c r="R94" s="1" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
